--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\ElectoralMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2EAD83-531E-4370-A7FC-71BFF6BE6144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B99BC5-C16E-497C-8AF9-B10B8E6C04E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="national" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">national!$A$1:$B$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">national!$A$1:$J$52</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -346,6 +346,54 @@
   </si>
   <si>
     <t>votes</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>rep16</t>
+  </si>
+  <si>
+    <t>dem16</t>
+  </si>
+  <si>
+    <t>rep12</t>
+  </si>
+  <si>
+    <t>dem12</t>
+  </si>
+  <si>
+    <t>rep08</t>
+  </si>
+  <si>
+    <t>dem08</t>
+  </si>
+  <si>
+    <t>solid-rep</t>
+  </si>
+  <si>
+    <t>tossup</t>
+  </si>
+  <si>
+    <t>solid-dem</t>
+  </si>
+  <si>
+    <t>lean-dem</t>
+  </si>
+  <si>
+    <t>lean-rep</t>
+  </si>
+  <si>
+    <t>rep04</t>
+  </si>
+  <si>
+    <t>dem04</t>
+  </si>
+  <si>
+    <t>rep00</t>
+  </si>
+  <si>
+    <t>dem00</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B1E82-8091-41B0-BD60-8CA737A0639A}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1242,7 +1290,7 @@
     <col min="3" max="16384" width="10.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,8 +1300,41 @@
       <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1263,8 +1344,41 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2">
+        <v>51.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>54.8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I2" s="2">
+        <v>59.4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>61.1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1274,8 +1388,41 @@
       <c r="C3" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>60.3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K3" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M3" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1285,8 +1432,41 @@
       <c r="C4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G4" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I4" s="2">
+        <v>58.7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>54.3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51.3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -1296,8 +1476,41 @@
       <c r="C5" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>53.4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>54.8</v>
+      </c>
+      <c r="L5" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1307,8 +1520,41 @@
       <c r="C6" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>61.7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>60.2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2">
+        <v>61</v>
+      </c>
+      <c r="K6" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>54.3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="N6" s="2">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1318,8 +1564,41 @@
       <c r="C7" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>53.7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>51.7</v>
+      </c>
+      <c r="L7" s="2">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="N7" s="2">
+        <v>42.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1329,8 +1608,41 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H8" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J8" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2">
+        <v>54.3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -1340,8 +1652,41 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F9" s="2">
+        <v>90.9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>90.9</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L9" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
@@ -1351,8 +1696,41 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>53.1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="L10" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1362,8 +1740,41 @@
       <c r="C11" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>49.1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>52.1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>47.1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>48.9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1373,8 +1784,41 @@
       <c r="C12" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>53.3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>52.1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>58</v>
+      </c>
+      <c r="L12" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>54.7</v>
+      </c>
+      <c r="N12" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1384,8 +1828,41 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="I13" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="J13" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="K13" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>54</v>
+      </c>
+      <c r="M13" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1395,8 +1872,41 @@
       <c r="C14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="G14" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>52</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="L14" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1406,8 +1916,41 @@
       <c r="C15" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="2">
+        <v>59.3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="H15" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>61.2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>67.2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -1417,8 +1960,41 @@
       <c r="C16" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F16" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H16" s="2">
+        <v>57.6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="J16" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>54.8</v>
+      </c>
+      <c r="M16" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="N16" s="2">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
@@ -1428,8 +2004,41 @@
       <c r="C17" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="I17" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="J17" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="L17" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="M17" s="2">
+        <v>56.7</v>
+      </c>
+      <c r="N17" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
@@ -1439,8 +2048,41 @@
       <c r="C18" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G18" s="2">
+        <v>59.7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="J18" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="K18" s="2">
+        <v>62</v>
+      </c>
+      <c r="L18" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="M18" s="2">
+        <v>58</v>
+      </c>
+      <c r="N18" s="2">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -1450,8 +2092,41 @@
       <c r="C19" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G19" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I19" s="2">
+        <v>57.4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>59.6</v>
+      </c>
+      <c r="L19" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="M19" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -1461,8 +2136,41 @@
       <c r="C20" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="I20" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="J20" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="K20" s="2">
+        <v>56.7</v>
+      </c>
+      <c r="L20" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="M20" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="N20" s="2">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1472,8 +2180,41 @@
       <c r="C21" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F21" s="2">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>60.7</v>
+      </c>
+      <c r="I21" s="2">
+        <v>36</v>
+      </c>
+      <c r="J21" s="2">
+        <v>61.8</v>
+      </c>
+      <c r="K21" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="L21" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="M21" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -1483,8 +2224,41 @@
       <c r="C22" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="F22" s="2">
+        <v>60.3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="H22" s="2">
+        <v>62</v>
+      </c>
+      <c r="I22" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>55.9</v>
+      </c>
+      <c r="M22" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="N22" s="2">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +2268,41 @@
       <c r="C23" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="F23" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>41</v>
+      </c>
+      <c r="H23" s="2">
+        <v>56.3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>57.7</v>
+      </c>
+      <c r="K23" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="L23" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="M23" s="2">
+        <v>44</v>
+      </c>
+      <c r="N23" s="2">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -1505,8 +2312,41 @@
       <c r="C24" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>47.3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="H24" s="2">
+        <v>54.2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="J24" s="2">
+        <v>57.3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="L24" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1516,8 +2356,41 @@
       <c r="C25" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="F25" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45</v>
+      </c>
+      <c r="H25" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="J25" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>47.6</v>
+      </c>
+      <c r="L25" s="2">
+        <v>51.1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="N25" s="2">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1527,8 +2400,41 @@
       <c r="C26" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="2">
+        <v>56.4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>53.8</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="I26" s="2">
+        <v>49.4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>53.3</v>
+      </c>
+      <c r="L26" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="N26" s="2">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -1538,8 +2444,41 @@
       <c r="C27" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2">
+        <v>57.9</v>
+      </c>
+      <c r="F27" s="2">
+        <v>40.1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>55.3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="I27" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>43</v>
+      </c>
+      <c r="K27" s="2">
+        <v>59.4</v>
+      </c>
+      <c r="L27" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="M27" s="2">
+        <v>57.6</v>
+      </c>
+      <c r="N27" s="2">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>96</v>
       </c>
@@ -1549,8 +2488,11 @@
       <c r="C28" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1560,8 +2502,11 @@
       <c r="C29" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -1571,8 +2516,11 @@
       <c r="C30" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>86</v>
       </c>
@@ -1582,8 +2530,11 @@
       <c r="C31" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1593,8 +2544,11 @@
       <c r="C32" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -1604,8 +2558,11 @@
       <c r="C33" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -1615,8 +2572,11 @@
       <c r="C34" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
@@ -1626,8 +2586,11 @@
       <c r="C35" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
@@ -1637,8 +2600,11 @@
       <c r="C36" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -1648,8 +2614,11 @@
       <c r="C37" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -1659,8 +2628,11 @@
       <c r="C38" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
@@ -1670,8 +2642,11 @@
       <c r="C39" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
@@ -1681,8 +2656,11 @@
       <c r="C40" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -1692,8 +2670,11 @@
       <c r="C41" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1703,8 +2684,11 @@
       <c r="C42" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -1714,8 +2698,11 @@
       <c r="C43" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>28</v>
       </c>
@@ -1725,8 +2712,11 @@
       <c r="C44" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
@@ -1736,8 +2726,11 @@
       <c r="C45" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
@@ -1747,8 +2740,11 @@
       <c r="C46" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>34</v>
       </c>
@@ -1758,8 +2754,11 @@
       <c r="C47" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
@@ -1769,8 +2768,11 @@
       <c r="C48" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1780,8 +2782,11 @@
       <c r="C49" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>68</v>
       </c>
@@ -1791,8 +2796,11 @@
       <c r="C50" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>88</v>
       </c>
@@ -1802,8 +2810,11 @@
       <c r="C51" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>66</v>
       </c>
@@ -1813,13 +2824,12 @@
       <c r="C52" s="2">
         <v>3</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B52" xr:uid="{9B501CB7-826E-4260-A530-57F0491828F7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B52">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J52" xr:uid="{AC66F20B-9FD2-4886-B096-21EC9BEEEA83}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\ElectoralMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B99BC5-C16E-497C-8AF9-B10B8E6C04E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB46460-338A-4B79-9828-441CB65D5CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">national!$A$1:$J$52</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -369,21 +361,6 @@
     <t>dem08</t>
   </si>
   <si>
-    <t>solid-rep</t>
-  </si>
-  <si>
-    <t>tossup</t>
-  </si>
-  <si>
-    <t>solid-dem</t>
-  </si>
-  <si>
-    <t>lean-dem</t>
-  </si>
-  <si>
-    <t>lean-rep</t>
-  </si>
-  <si>
     <t>rep04</t>
   </si>
   <si>
@@ -394,6 +371,21 @@
   </si>
   <si>
     <t>dem00</t>
+  </si>
+  <si>
+    <t>SolidDem</t>
+  </si>
+  <si>
+    <t>LeanDem</t>
+  </si>
+  <si>
+    <t>SolidRep</t>
+  </si>
+  <si>
+    <t>LeanRep</t>
+  </si>
+  <si>
+    <t>Tossup</t>
   </si>
 </sst>
 </file>
@@ -1322,16 +1314,16 @@
         <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>51.3</v>
@@ -1389,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>62.1</v>
@@ -1433,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
         <v>60.6</v>
@@ -1477,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>48.1</v>
@@ -1521,7 +1513,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2">
         <v>31.6</v>
@@ -1565,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2">
         <v>43.3</v>
@@ -1609,7 +1601,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2">
         <v>40.9</v>
@@ -1653,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2">
         <v>4.0999999999999996</v>
@@ -1697,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2">
         <v>41.7</v>
@@ -1741,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2">
         <v>49</v>
@@ -1785,7 +1777,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2">
         <v>50.4</v>
@@ -1829,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2">
         <v>30.4</v>
@@ -1873,7 +1865,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2">
         <v>51.2</v>
@@ -1917,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2">
         <v>59.3</v>
@@ -1961,7 +1953,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2">
         <v>38.799999999999997</v>
@@ -2005,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2">
         <v>56.5</v>
@@ -2049,7 +2041,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2">
         <v>56.2</v>
@@ -2093,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E19" s="2">
         <v>60.5</v>
@@ -2137,7 +2129,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E20" s="2">
         <v>58.1</v>
@@ -2181,7 +2173,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E21" s="2">
         <v>32.799999999999997</v>
@@ -2225,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="2">
         <v>33.9</v>
@@ -2269,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E23" s="2">
         <v>44.9</v>
@@ -2313,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2">
         <v>47.5</v>
@@ -2357,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2">
         <v>44.9</v>
@@ -2401,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2">
         <v>56.4</v>
@@ -2445,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E27" s="2">
         <v>57.9</v>
@@ -2489,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2503,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2531,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2559,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2587,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2601,7 +2593,7 @@
         <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,7 +2607,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,7 +2621,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2657,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2685,7 +2677,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2699,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2713,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,7 +2719,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2769,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2783,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2811,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a13a36fbd24818e/שולחן עבודה/GitHub/USA/ElectoralMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB46460-338A-4B79-9828-441CB65D5CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4FB46460-338A-4B79-9828-441CB65D5CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{488C6753-AFB9-4E17-A155-23EE27C3A1D0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="national" sheetId="7" r:id="rId1"/>
@@ -1777,7 +1777,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2">
         <v>50.4</v>
@@ -2305,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E24" s="2">
         <v>47.5</v>
@@ -2537,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a13a36fbd24818e/שולחן עבודה/GitHub/USA/ElectoralMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4FB46460-338A-4B79-9828-441CB65D5CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{488C6753-AFB9-4E17-A155-23EE27C3A1D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6BC6AC-0F1C-4E01-B82A-A5FE57FC7AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2">
         <v>43.3</v>
@@ -2649,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6BC6AC-0F1C-4E01-B82A-A5FE57FC7AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC181E4-8CB3-48C7-B589-F02DD335EBFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC181E4-8CB3-48C7-B589-F02DD335EBFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54738D7-7E08-4980-AB01-92CC3D8BAB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54738D7-7E08-4980-AB01-92CC3D8BAB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54DEB0D-8D9D-477F-B287-5097FBDCBF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="national" sheetId="7" r:id="rId1"/>
@@ -2483,6 +2483,36 @@
       <c r="D28" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E28" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G28" s="2">
+        <v>55.4</v>
+      </c>
+      <c r="H28" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="I28" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>47.1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>59.1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="M28" s="2">
+        <v>58.4</v>
+      </c>
+      <c r="N28" s="2">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -2497,6 +2527,36 @@
       <c r="D29" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E29" s="2">
+        <v>49.8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="H29" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="I29" s="2">
+        <v>49.4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>49.7</v>
+      </c>
+      <c r="K29" s="2">
+        <v>56</v>
+      </c>
+      <c r="L29" s="2">
+        <v>43.6</v>
+      </c>
+      <c r="M29" s="2">
+        <v>56</v>
+      </c>
+      <c r="N29" s="2">
+        <v>43.2</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -2511,6 +2571,36 @@
       <c r="D30" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E30" s="2">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I30" s="2">
+        <v>53.2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="K30" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="L30" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>60.7</v>
+      </c>
+      <c r="N30" s="2">
+        <v>33.1</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -2525,6 +2615,36 @@
       <c r="D31" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E31" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="F31" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G31" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="H31" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="J31" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="K31" s="2">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="L31" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M31" s="2">
+        <v>62.3</v>
+      </c>
+      <c r="N31" s="2">
+        <v>33.299999999999997</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -2539,8 +2659,38 @@
       <c r="D32" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>47.3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>47.6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>52</v>
+      </c>
+      <c r="I32" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="J32" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="K32" s="2">
+        <v>48.9</v>
+      </c>
+      <c r="L32" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="M32" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -2553,8 +2703,38 @@
       <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="H33" s="2">
+        <v>58.4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="J33" s="2">
+        <v>57.1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="L33" s="2">
+        <v>52.9</v>
+      </c>
+      <c r="M33" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="N33" s="2">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -2567,8 +2747,38 @@
       <c r="D34" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2">
+        <v>48.3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>42.8</v>
+      </c>
+      <c r="H34" s="2">
+        <v>53</v>
+      </c>
+      <c r="I34" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="J34" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="K34" s="2">
+        <v>49.8</v>
+      </c>
+      <c r="L34" s="2">
+        <v>49.1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="N34" s="2">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
@@ -2582,7 +2792,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
@@ -2596,7 +2806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -2610,7 +2820,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -2624,7 +2834,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
@@ -2638,7 +2848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
@@ -2652,7 +2862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -2666,7 +2876,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -2694,7 +2904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>28</v>
       </c>
@@ -2708,7 +2918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
@@ -2722,7 +2932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
@@ -2736,7 +2946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>34</v>
       </c>
@@ -2750,7 +2960,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>36</v>
       </c>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54DEB0D-8D9D-477F-B287-5097FBDCBF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A5D62F-DBCE-4A10-A1BB-61B246134009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3032,6 +3032,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J52" xr:uid="{AC66F20B-9FD2-4886-B096-21EC9BEEEA83}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N52">
+    <sortCondition ref="A1:A52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A5D62F-DBCE-4A10-A1BB-61B246134009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4433A-5494-4256-A9AA-8147DD70494E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1337,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>51.3</v>
@@ -2041,7 +2041,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2">
         <v>56.2</v>
@@ -2261,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="2">
         <v>44.9</v>
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="2">
         <v>56.2</v>
@@ -2613,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2">
         <v>58.8</v>
@@ -2657,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2">
         <v>47.3</v>
@@ -2745,7 +2745,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2">
         <v>40</v>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4433A-5494-4256-A9AA-8147DD70494E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABDFFA8-2B07-4F00-91FA-6B6C76F296C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2393,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2">
         <v>56.4</v>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABDFFA8-2B07-4F00-91FA-6B6C76F296C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C62A77-4BBC-4A53-9DCE-4B10C5EAAB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="national" sheetId="7" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1997,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2">
         <v>56.5</v>
@@ -2791,6 +2791,36 @@
       <c r="D35" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E35" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45.7</v>
+      </c>
+      <c r="H35" s="2">
+        <v>52.4</v>
+      </c>
+      <c r="I35" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="J35" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="K35" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="L35" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="M35" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="N35" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -2805,6 +2835,36 @@
       <c r="D36" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E36" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>59</v>
+      </c>
+      <c r="G36" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H36" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="I36" s="2">
+        <v>36</v>
+      </c>
+      <c r="J36" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="K36" s="2">
+        <v>40.1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>58.4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N36" s="2">
+        <v>60.2</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -2819,6 +2879,36 @@
       <c r="D37" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E37" s="2">
+        <v>51.7</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43.6</v>
+      </c>
+      <c r="G37" s="2">
+        <v>47.7</v>
+      </c>
+      <c r="H37" s="2">
+        <v>50.7</v>
+      </c>
+      <c r="I37" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="J37" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="K37" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="L37" s="2">
+        <v>48.7</v>
+      </c>
+      <c r="M37" s="2">
+        <v>50</v>
+      </c>
+      <c r="N37" s="2">
+        <v>46.5</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -2833,6 +2923,36 @@
       <c r="D38" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E38" s="2">
+        <v>65.3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>66.8</v>
+      </c>
+      <c r="H38" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I38" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="J38" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="K38" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="L38" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="M38" s="2">
+        <v>60.3</v>
+      </c>
+      <c r="N38" s="2">
+        <v>38.4</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -2847,6 +2967,36 @@
       <c r="D39" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E39" s="2">
+        <v>39.1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>54.2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="J39" s="2">
+        <v>56.8</v>
+      </c>
+      <c r="K39" s="2">
+        <v>47.2</v>
+      </c>
+      <c r="L39" s="2">
+        <v>51.4</v>
+      </c>
+      <c r="M39" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="N39" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -2861,6 +3011,36 @@
       <c r="D40" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E40" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="H40" s="2">
+        <v>52</v>
+      </c>
+      <c r="I40" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="K40" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="L40" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="M40" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="N40" s="2">
+        <v>50.6</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -2875,6 +3055,36 @@
       <c r="D41" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E41" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="F41" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H41" s="2">
+        <v>62.7</v>
+      </c>
+      <c r="I41" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="K41" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="L41" s="2">
+        <v>59.4</v>
+      </c>
+      <c r="M41" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="N41" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2889,6 +3099,36 @@
       <c r="D42" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E42" s="2">
+        <v>54.9</v>
+      </c>
+      <c r="F42" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G42" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="H42" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="J42" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="K42" s="2">
+        <v>58</v>
+      </c>
+      <c r="L42" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="M42" s="2">
+        <v>56.8</v>
+      </c>
+      <c r="N42" s="2">
+        <v>40.9</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -2903,6 +3143,36 @@
       <c r="D43" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E43" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="G43" s="2">
+        <v>57.9</v>
+      </c>
+      <c r="H43" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="I43" s="2">
+        <v>53.2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>44.8</v>
+      </c>
+      <c r="K43" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="L43" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="M43" s="2">
+        <v>60.3</v>
+      </c>
+      <c r="N43" s="2">
+        <v>37.6</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -2917,6 +3187,36 @@
       <c r="D44" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E44" s="2">
+        <v>60.7</v>
+      </c>
+      <c r="F44" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G44" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>39.1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="J44" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="K44" s="2">
+        <v>56.8</v>
+      </c>
+      <c r="L44" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="M44" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="N44" s="2">
+        <v>47.3</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -2931,6 +3231,36 @@
       <c r="D45" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E45" s="2">
+        <v>52.2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>57.2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="K45" s="2">
+        <v>61.1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M45" s="2">
+        <v>59.3</v>
+      </c>
+      <c r="N45" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -2945,6 +3275,36 @@
       <c r="D46" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E46" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H46" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="I46" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K46" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="L46" s="2">
+        <v>26</v>
+      </c>
+      <c r="M46" s="2">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="N46" s="2">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -2959,6 +3319,36 @@
       <c r="D47" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E47" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="F47" s="2">
+        <v>49.7</v>
+      </c>
+      <c r="G47" s="2">
+        <v>47.3</v>
+      </c>
+      <c r="H47" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="I47" s="2">
+        <v>46.3</v>
+      </c>
+      <c r="J47" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="K47" s="2">
+        <v>53.7</v>
+      </c>
+      <c r="L47" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="M47" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="N47" s="2">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -2973,8 +3363,38 @@
       <c r="D48" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="F48" s="2">
+        <v>55.7</v>
+      </c>
+      <c r="G48" s="2">
+        <v>31</v>
+      </c>
+      <c r="H48" s="2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="I48" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="J48" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="K48" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="L48" s="2">
+        <v>58.9</v>
+      </c>
+      <c r="M48" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="N48" s="2">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3407,38 @@
       <c r="D49" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>54.3</v>
+      </c>
+      <c r="G49" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="H49" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="I49" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J49" s="2">
+        <v>57.3</v>
+      </c>
+      <c r="K49" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="L49" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="M49" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="N49" s="2">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>68</v>
       </c>
@@ -3001,8 +3451,38 @@
       <c r="D50" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>47.2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45.9</v>
+      </c>
+      <c r="H50" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="I50" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="J50" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="K50" s="2">
+        <v>49.3</v>
+      </c>
+      <c r="L50" s="2">
+        <v>49.7</v>
+      </c>
+      <c r="M50" s="2">
+        <v>47.6</v>
+      </c>
+      <c r="N50" s="2">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>88</v>
       </c>
@@ -3015,8 +3495,38 @@
       <c r="D51" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="G51" s="2">
+        <v>62.3</v>
+      </c>
+      <c r="H51" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="I51" s="2">
+        <v>55.6</v>
+      </c>
+      <c r="J51" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>56.1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="M51" s="2">
+        <v>51.9</v>
+      </c>
+      <c r="N51" s="2">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>66</v>
       </c>
@@ -3028,6 +3538,36 @@
       </c>
       <c r="D52" s="2" t="s">
         <v>118</v>
+      </c>
+      <c r="E52" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F52" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="G52" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="H52" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I52" s="2">
+        <v>64.8</v>
+      </c>
+      <c r="J52" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="K52" s="2">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="L52" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>67.8</v>
+      </c>
+      <c r="N52" s="2">
+        <v>27.7</v>
       </c>
     </row>
   </sheetData>

--- a/ElectoralMap/2020.xlsx
+++ b/ElectoralMap/2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\ניר\onedrive\שולחן עבודה\github\usa\electoralmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a13a36fbd24818e/שולחן עבודה/GitHub/USA/ElectoralMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C62A77-4BBC-4A53-9DCE-4B10C5EAAB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{4A402491-0531-4DA8-B4D2-E4E6E80FD332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="national" sheetId="7" r:id="rId1"/>
